--- a/benchmark/v1.0.0.xlsx
+++ b/benchmark/v1.0.0.xlsx
@@ -13,7 +13,7 @@
     <definedName name="hours_btw_doses">#REF!</definedName>
     <definedName name="hoursbtwdoses">#REF!</definedName>
     <definedName name="lpkopo">#REF!</definedName>
-    <definedName name="new_2" localSheetId="0">benchmark!$B$1:$C$39</definedName>
+    <definedName name="new_2" localSheetId="0">benchmark!$B$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Typing WPM</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>betahistine    24mgx1</t>
-  </si>
-  <si>
-    <t>anafranil 37.5</t>
   </si>
   <si>
     <t>anafranil    75mgx1.5</t>
@@ -291,6 +288,51 @@
 Verbal Memory points
 DHA/EPA sighlitly linked to  Chimp Test imporvment
 </t>
+  </si>
+  <si>
+    <t>2ml</t>
+  </si>
+  <si>
+    <t>1ml</t>
+  </si>
+  <si>
+    <t>10mgx1.5</t>
+  </si>
+  <si>
+    <t>aspegic 500mg</t>
+  </si>
+  <si>
+    <t>500mgx2</t>
+  </si>
+  <si>
+    <t>terbutaline 1ml</t>
+  </si>
+  <si>
+    <t>1mlx2</t>
+  </si>
+  <si>
+    <t>lavender 1ml</t>
+  </si>
+  <si>
+    <t>1mlx16</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>vasicine</t>
+  </si>
+  <si>
+    <t>5ml</t>
+  </si>
+  <si>
+    <t>100ug</t>
+  </si>
+  <si>
+    <t>4/11/2023 alertgene 2.4.4++</t>
   </si>
 </sst>
 </file>
@@ -785,7 +827,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -814,6 +856,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -821,6 +866,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1156,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1170,13 +1221,14 @@
     <col min="4" max="4" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="7" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>44730</v>
@@ -1193,8 +1245,11 @@
       <c r="F1" s="2">
         <v>44737</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1211,15 +1266,18 @@
       <c r="F2" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>26</v>
       </c>
       <c r="D3" s="6">
@@ -1231,8 +1289,11 @@
       <c r="F3" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1251,8 +1312,11 @@
       <c r="F4" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1326,7 @@
       <c r="C5" s="6">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>9</v>
       </c>
       <c r="E5" s="6">
@@ -1271,8 +1335,11 @@
       <c r="F5" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1291,8 +1358,11 @@
       <c r="F6" s="6">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1311,8 +1381,11 @@
       <c r="F7" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1331,8 +1404,11 @@
       <c r="F8" s="6">
         <v>558</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1351,23 +1427,27 @@
       <c r="F9" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="2" t="s">
+      <c r="G9" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
@@ -1383,17 +1463,20 @@
         <v>13</v>
       </c>
       <c r="G11" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H11" s="6">
         <v>8</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="I11" s="8">
-        <f>G11/H11</f>
+      <c r="J11" s="8">
+        <f>H11/I11</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1406,18 +1489,21 @@
       <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="6">
         <v>6</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="I12" s="8">
-        <f>G12/H12</f>
+      <c r="J12" s="8">
+        <f>H12/I12</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
@@ -1428,18 +1514,21 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="G13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6">
         <v>4</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>2</v>
       </c>
-      <c r="I13" s="8">
-        <f>G13/H13</f>
+      <c r="J13" s="8">
+        <f>H13/I13</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
@@ -1448,18 +1537,21 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6">
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="6">
         <v>2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="8">
-        <f>G14/H14</f>
+      <c r="J14" s="8">
+        <f>H14/I14</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -1468,18 +1560,21 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6">
+      <c r="G15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="6">
         <v>2</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>1</v>
       </c>
-      <c r="I15" s="8">
-        <f>G15/H15</f>
+      <c r="J15" s="8">
+        <f>H15/I15</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -1488,18 +1583,19 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>1</v>
       </c>
-      <c r="I16" s="8">
-        <f t="shared" ref="I16:I21" si="0">G16/H16</f>
+      <c r="J16" s="8">
+        <f t="shared" ref="J16:J21" si="0">H16/I16</f>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
@@ -1508,123 +1604,161 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>1</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="6">
+        <v>25</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="6">
         <v>8</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>5</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:10">
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>6</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>4</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="6"/>
+    <row r="20" spans="1:10">
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6">
         <v>1</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6"/>
+    <row r="21" spans="1:10">
+      <c r="C21" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>1</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="252">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="252">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:F10"/>
   </mergeCells>
-  <conditionalFormatting sqref="I11:I21">
+  <conditionalFormatting sqref="J11:J21">
     <cfRule type="aboveAverage" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/benchmark/v1.0.0.xlsx
+++ b/benchmark/v1.0.0.xlsx
@@ -13,7 +13,7 @@
     <definedName name="hours_btw_doses">#REF!</definedName>
     <definedName name="hoursbtwdoses">#REF!</definedName>
     <definedName name="lpkopo">#REF!</definedName>
-    <definedName name="new_2" localSheetId="0">benchmark!$B$1:$C$44</definedName>
+    <definedName name="new_2" localSheetId="0">benchmark!$B$1:$C$47</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -139,7 +139,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="H24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>rectal</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Typing WPM</t>
   </si>
@@ -334,6 +358,48 @@
   <si>
     <t>4/11/2023 alertgene 2.4.4++</t>
   </si>
+  <si>
+    <t>alertgene 2.4.3.23619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    75mgx1.5</t>
+  </si>
+  <si>
+    <t>8ml</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>16mg</t>
+  </si>
+  <si>
+    <t>250ug</t>
+  </si>
+  <si>
+    <t>0.25g</t>
+  </si>
+  <si>
+    <t>7.5mg</t>
+  </si>
+  <si>
+    <t>rehdoila</t>
+  </si>
+  <si>
+    <t>22.5mg</t>
+  </si>
+  <si>
+    <t>Phenylephrine</t>
+  </si>
+  <si>
+    <t>2.5mg</t>
+  </si>
+  <si>
+    <t>chlorpheniramine</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
 </sst>
 </file>
 
@@ -342,7 +408,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +547,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -827,7 +906,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -859,6 +938,15 @@
     <xf numFmtId="14" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -868,11 +956,8 @@
     <xf numFmtId="14" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1207,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1222,13 +1307,14 @@
     <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>44730</v>
@@ -1245,11 +1331,14 @@
       <c r="F1" s="2">
         <v>44737</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1266,11 +1355,14 @@
       <c r="F2" s="6">
         <v>32</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1289,11 +1381,14 @@
       <c r="F3" s="6">
         <v>11</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1312,11 +1407,14 @@
       <c r="F4" s="6">
         <v>10</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1338,8 +1436,11 @@
       <c r="G5" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1358,11 +1459,14 @@
       <c r="F6" s="6">
         <v>257</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1381,11 +1485,14 @@
       <c r="F7" s="6">
         <v>9</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1404,11 +1511,14 @@
       <c r="F8" s="6">
         <v>558</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="13">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1427,27 +1537,31 @@
       <c r="F9" s="7">
         <v>10</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="H9" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
@@ -1465,18 +1579,19 @@
       <c r="G11" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>8</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>4</v>
       </c>
-      <c r="J11" s="8">
-        <f>H11/I11</f>
+      <c r="K11" s="8">
+        <f>I11/J11</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1492,18 +1607,21 @@
       <c r="G12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="6">
         <v>6</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="8">
-        <f>H12/I12</f>
+      <c r="K12" s="8">
+        <f>I12/J12</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
@@ -1517,18 +1635,21 @@
       <c r="G13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="6">
         <v>4</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>2</v>
       </c>
-      <c r="J13" s="8">
-        <f>H13/I13</f>
+      <c r="K13" s="8">
+        <f>I13/J13</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
@@ -1540,18 +1661,21 @@
       <c r="G14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="6">
         <v>2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="8">
-        <f>H14/I14</f>
+      <c r="K14" s="8">
+        <f>I14/J14</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -1563,18 +1687,21 @@
       <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="6">
         <v>2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="J15" s="8">
-        <f>H15/I15</f>
+      <c r="K15" s="8">
+        <f>I15/J15</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -1584,18 +1711,21 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="H16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="6">
         <v>2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>1</v>
       </c>
-      <c r="J16" s="8">
-        <f t="shared" ref="J16:J21" si="0">H16/I16</f>
+      <c r="K16" s="8">
+        <f t="shared" ref="K16:K21" si="0">I16/J16</f>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
@@ -1605,18 +1735,19 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>1</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="6"/>
       <c r="C18" s="6" t="s">
         <v>23</v>
@@ -1633,18 +1764,21 @@
       <c r="G18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="6">
         <v>8</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>5</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1658,18 +1792,19 @@
         <v>28</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
         <v>6</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>4</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1679,18 +1814,21 @@
         <v>30</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6">
-        <v>1</v>
+      <c r="H20" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1698,18 +1836,19 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>1</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1717,31 +1856,40 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="H23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="H24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="H25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -1749,8 +1897,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="252">
-      <c r="A28" s="1" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="17"/>
+      <c r="H30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="252">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1758,7 +1936,7 @@
   <mergeCells count="1">
     <mergeCell ref="A10:F10"/>
   </mergeCells>
-  <conditionalFormatting sqref="J11:J21">
+  <conditionalFormatting sqref="K11:K21">
     <cfRule type="aboveAverage" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
